--- a/10_Especialidades/00_bases/CBO_MEDICOS.xlsx
+++ b/10_Especialidades/00_bases/CBO_MEDICOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\dimensionamento\10_Especialidades\00_bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3589A2D3-9089-4337-B147-05C67FA1C4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB38ADB-E34D-4F56-A8C7-E1A9114E6610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>CODIGO</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Parâmetros 5% a menos</t>
+  </si>
+  <si>
+    <t>Outros</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,15 +596,15 @@
         <v>1900</v>
       </c>
       <c r="F2">
-        <f>C2*1.1</f>
+        <f t="shared" ref="F2:F46" si="0">C2*1.1</f>
         <v>2200</v>
       </c>
       <c r="G2">
-        <f>C2*0.9</f>
+        <f t="shared" ref="G2:G46" si="1">C2*0.9</f>
         <v>1800</v>
       </c>
       <c r="H2">
-        <f>C2*1.15</f>
+        <f t="shared" ref="H2:H46" si="2">C2*1.15</f>
         <v>2300</v>
       </c>
       <c r="I2">
@@ -620,27 +623,27 @@
         <v>2000</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D45" si="0">C3*1.05</f>
+        <f t="shared" ref="D3:D46" si="3">C3*1.05</f>
         <v>2100</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E45" si="1">C3*0.95</f>
+        <f t="shared" ref="E3:E46" si="4">C3*0.95</f>
         <v>1900</v>
       </c>
       <c r="F3">
-        <f>C3*1.1</f>
+        <f t="shared" si="0"/>
         <v>2200</v>
       </c>
       <c r="G3">
-        <f>C3*0.9</f>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="H3">
-        <f>C3*1.15</f>
+        <f t="shared" si="2"/>
         <v>2300</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I45" si="2">F3*0.85</f>
+        <f t="shared" ref="I3:I46" si="5">F3*0.85</f>
         <v>1870</v>
       </c>
     </row>
@@ -655,27 +658,27 @@
         <v>4000</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4200</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3800</v>
       </c>
       <c r="F4">
-        <f>C4*1.1</f>
+        <f t="shared" si="0"/>
         <v>4400</v>
       </c>
       <c r="G4">
-        <f>C4*0.9</f>
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="H4">
-        <f>C4*1.15</f>
+        <f t="shared" si="2"/>
         <v>4600</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3740</v>
       </c>
     </row>
@@ -690,27 +693,27 @@
         <v>4000</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4200</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3800</v>
       </c>
       <c r="F5">
-        <f>C5*1.1</f>
+        <f t="shared" si="0"/>
         <v>4400</v>
       </c>
       <c r="G5">
-        <f>C5*0.9</f>
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="H5">
-        <f>C5*1.15</f>
+        <f t="shared" si="2"/>
         <v>4600</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3740</v>
       </c>
     </row>
@@ -725,27 +728,27 @@
         <v>4000</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4200</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3800</v>
       </c>
       <c r="F6">
-        <f>C6*1.1</f>
+        <f t="shared" si="0"/>
         <v>4400</v>
       </c>
       <c r="G6">
-        <f>C6*0.9</f>
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="H6">
-        <f>C6*1.15</f>
+        <f t="shared" si="2"/>
         <v>4600</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3740</v>
       </c>
     </row>
@@ -760,27 +763,27 @@
         <v>4184</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4393.2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3974.7999999999997</v>
       </c>
       <c r="F7">
-        <f>C7*1.1</f>
+        <f t="shared" si="0"/>
         <v>4602.4000000000005</v>
       </c>
       <c r="G7">
-        <f>C7*0.9</f>
+        <f t="shared" si="1"/>
         <v>3765.6</v>
       </c>
       <c r="H7">
-        <f>C7*1.15</f>
+        <f t="shared" si="2"/>
         <v>4811.5999999999995</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3912.0400000000004</v>
       </c>
     </row>
@@ -795,27 +798,27 @@
         <v>6250</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6562.5</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5937.5</v>
       </c>
       <c r="F8">
-        <f>C8*1.1</f>
+        <f t="shared" si="0"/>
         <v>6875.0000000000009</v>
       </c>
       <c r="G8">
-        <f>C8*0.9</f>
+        <f t="shared" si="1"/>
         <v>5625</v>
       </c>
       <c r="H8">
-        <f>C8*1.15</f>
+        <f t="shared" si="2"/>
         <v>7187.4999999999991</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5843.7500000000009</v>
       </c>
     </row>
@@ -830,27 +833,27 @@
         <v>10000</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10500</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9500</v>
       </c>
       <c r="F9">
-        <f>C9*1.1</f>
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
       <c r="G9">
-        <f>C9*0.9</f>
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="H9">
-        <f>C9*1.15</f>
+        <f t="shared" si="2"/>
         <v>11500</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9350</v>
       </c>
     </row>
@@ -865,27 +868,27 @@
         <v>10000</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10500</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9500</v>
       </c>
       <c r="F10">
-        <f>C10*1.1</f>
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
       <c r="G10">
-        <f>C10*0.9</f>
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="H10">
-        <f>C10*1.15</f>
+        <f t="shared" si="2"/>
         <v>11500</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9350</v>
       </c>
     </row>
@@ -900,27 +903,27 @@
         <v>15385</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16154.25</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14615.75</v>
       </c>
       <c r="F11">
-        <f>C11*1.1</f>
+        <f t="shared" si="0"/>
         <v>16923.5</v>
       </c>
       <c r="G11">
-        <f>C11*0.9</f>
+        <f t="shared" si="1"/>
         <v>13846.5</v>
       </c>
       <c r="H11">
-        <f>C11*1.15</f>
+        <f t="shared" si="2"/>
         <v>17692.75</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>14384.975</v>
       </c>
     </row>
@@ -935,27 +938,27 @@
         <v>17241</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18103.05</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16378.949999999999</v>
       </c>
       <c r="F12">
-        <f>C12*1.1</f>
+        <f t="shared" si="0"/>
         <v>18965.100000000002</v>
       </c>
       <c r="G12">
-        <f>C12*0.9</f>
+        <f t="shared" si="1"/>
         <v>15516.9</v>
       </c>
       <c r="H12">
-        <f>C12*1.15</f>
+        <f t="shared" si="2"/>
         <v>19827.149999999998</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16120.335000000001</v>
       </c>
     </row>
@@ -970,27 +973,27 @@
         <v>25000</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>26250</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>23750</v>
       </c>
       <c r="F13">
-        <f>C13*1.1</f>
+        <f t="shared" si="0"/>
         <v>27500.000000000004</v>
       </c>
       <c r="G13">
-        <f>C13*0.9</f>
+        <f t="shared" si="1"/>
         <v>22500</v>
       </c>
       <c r="H13">
-        <f>C13*1.15</f>
+        <f t="shared" si="2"/>
         <v>28749.999999999996</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23375.000000000004</v>
       </c>
     </row>
@@ -1005,27 +1008,27 @@
         <v>28571</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29999.550000000003</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>27142.449999999997</v>
       </c>
       <c r="F14">
-        <f>C14*1.1</f>
+        <f t="shared" si="0"/>
         <v>31428.100000000002</v>
       </c>
       <c r="G14">
-        <f>C14*0.9</f>
+        <f t="shared" si="1"/>
         <v>25713.9</v>
       </c>
       <c r="H14">
-        <f>C14*1.15</f>
+        <f t="shared" si="2"/>
         <v>32856.649999999994</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>26713.885000000002</v>
       </c>
     </row>
@@ -1040,27 +1043,27 @@
         <v>33333</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>34999.65</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31666.35</v>
       </c>
       <c r="F15">
-        <f>C15*1.1</f>
+        <f t="shared" si="0"/>
         <v>36666.300000000003</v>
       </c>
       <c r="G15">
-        <f>C15*0.9</f>
+        <f t="shared" si="1"/>
         <v>29999.7</v>
       </c>
       <c r="H15">
-        <f>C15*1.15</f>
+        <f t="shared" si="2"/>
         <v>38332.949999999997</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>31166.355000000003</v>
       </c>
     </row>
@@ -1075,27 +1078,27 @@
         <v>33333</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>34999.65</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31666.35</v>
       </c>
       <c r="F16">
-        <f>C16*1.1</f>
+        <f t="shared" si="0"/>
         <v>36666.300000000003</v>
       </c>
       <c r="G16">
-        <f>C16*0.9</f>
+        <f t="shared" si="1"/>
         <v>29999.7</v>
       </c>
       <c r="H16">
-        <f>C16*1.15</f>
+        <f t="shared" si="2"/>
         <v>38332.949999999997</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>31166.355000000003</v>
       </c>
     </row>
@@ -1110,27 +1113,27 @@
         <v>33333</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>34999.65</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31666.35</v>
       </c>
       <c r="F17">
-        <f>C17*1.1</f>
+        <f t="shared" si="0"/>
         <v>36666.300000000003</v>
       </c>
       <c r="G17">
-        <f>C17*0.9</f>
+        <f t="shared" si="1"/>
         <v>29999.7</v>
       </c>
       <c r="H17">
-        <f>C17*1.15</f>
+        <f t="shared" si="2"/>
         <v>38332.949999999997</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>31166.355000000003</v>
       </c>
     </row>
@@ -1145,27 +1148,27 @@
         <v>33333</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>34999.65</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31666.35</v>
       </c>
       <c r="F18">
-        <f>C18*1.1</f>
+        <f t="shared" si="0"/>
         <v>36666.300000000003</v>
       </c>
       <c r="G18">
-        <f>C18*0.9</f>
+        <f t="shared" si="1"/>
         <v>29999.7</v>
       </c>
       <c r="H18">
-        <f>C18*1.15</f>
+        <f t="shared" si="2"/>
         <v>38332.949999999997</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>31166.355000000003</v>
       </c>
     </row>
@@ -1180,27 +1183,27 @@
         <v>38461</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>40384.050000000003</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36537.949999999997</v>
       </c>
       <c r="F19">
-        <f>C19*1.1</f>
+        <f t="shared" si="0"/>
         <v>42307.100000000006</v>
       </c>
       <c r="G19">
-        <f>C19*0.9</f>
+        <f t="shared" si="1"/>
         <v>34614.9</v>
       </c>
       <c r="H19">
-        <f>C19*1.15</f>
+        <f t="shared" si="2"/>
         <v>44230.149999999994</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35961.035000000003</v>
       </c>
     </row>
@@ -1215,27 +1218,27 @@
         <v>40000</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42000</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38000</v>
       </c>
       <c r="F20">
-        <f>C20*1.1</f>
+        <f t="shared" si="0"/>
         <v>44000</v>
       </c>
       <c r="G20">
-        <f>C20*0.9</f>
+        <f t="shared" si="1"/>
         <v>36000</v>
       </c>
       <c r="H20">
-        <f>C20*1.15</f>
+        <f t="shared" si="2"/>
         <v>46000</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37400</v>
       </c>
     </row>
@@ -1250,27 +1253,27 @@
         <v>50000</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52500</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>47500</v>
       </c>
       <c r="F21">
-        <f>C21*1.1</f>
+        <f t="shared" si="0"/>
         <v>55000.000000000007</v>
       </c>
       <c r="G21">
-        <f>C21*0.9</f>
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
       <c r="H21">
-        <f>C21*1.15</f>
+        <f t="shared" si="2"/>
         <v>57499.999999999993</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46750.000000000007</v>
       </c>
     </row>
@@ -1285,27 +1288,27 @@
         <v>50000</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52500</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>47500</v>
       </c>
       <c r="F22">
-        <f>C22*1.1</f>
+        <f t="shared" si="0"/>
         <v>55000.000000000007</v>
       </c>
       <c r="G22">
-        <f>C22*0.9</f>
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
       <c r="H22">
-        <f>C22*1.15</f>
+        <f t="shared" si="2"/>
         <v>57499.999999999993</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46750.000000000007</v>
       </c>
     </row>
@@ -1320,27 +1323,27 @@
         <v>50000</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52500</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>47500</v>
       </c>
       <c r="F23">
-        <f>C23*1.1</f>
+        <f t="shared" si="0"/>
         <v>55000.000000000007</v>
       </c>
       <c r="G23">
-        <f>C23*0.9</f>
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
       <c r="H23">
-        <f>C23*1.15</f>
+        <f t="shared" si="2"/>
         <v>57499.999999999993</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46750.000000000007</v>
       </c>
     </row>
@@ -1355,27 +1358,27 @@
         <v>50000</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52500</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>47500</v>
       </c>
       <c r="F24">
-        <f>C24*1.1</f>
+        <f t="shared" si="0"/>
         <v>55000.000000000007</v>
       </c>
       <c r="G24">
-        <f>C24*0.9</f>
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
       <c r="H24">
-        <f>C24*1.15</f>
+        <f t="shared" si="2"/>
         <v>57499.999999999993</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46750.000000000007</v>
       </c>
     </row>
@@ -1390,27 +1393,27 @@
         <v>50000</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52500</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>47500</v>
       </c>
       <c r="F25">
-        <f>C25*1.1</f>
+        <f t="shared" si="0"/>
         <v>55000.000000000007</v>
       </c>
       <c r="G25">
-        <f>C25*0.9</f>
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
       <c r="H25">
-        <f>C25*1.15</f>
+        <f t="shared" si="2"/>
         <v>57499.999999999993</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46750.000000000007</v>
       </c>
     </row>
@@ -1425,27 +1428,27 @@
         <v>66666</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>69999.3</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>63332.7</v>
       </c>
       <c r="F26">
-        <f>C26*1.1</f>
+        <f t="shared" si="0"/>
         <v>73332.600000000006</v>
       </c>
       <c r="G26">
-        <f>C26*0.9</f>
+        <f t="shared" si="1"/>
         <v>59999.4</v>
       </c>
       <c r="H26">
-        <f>C26*1.15</f>
+        <f t="shared" si="2"/>
         <v>76665.899999999994</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>62332.710000000006</v>
       </c>
     </row>
@@ -1460,27 +1463,27 @@
         <v>66666</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>69999.3</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>63332.7</v>
       </c>
       <c r="F27">
-        <f>C27*1.1</f>
+        <f t="shared" si="0"/>
         <v>73332.600000000006</v>
       </c>
       <c r="G27">
-        <f>C27*0.9</f>
+        <f t="shared" si="1"/>
         <v>59999.4</v>
       </c>
       <c r="H27">
-        <f>C27*1.15</f>
+        <f t="shared" si="2"/>
         <v>76665.899999999994</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>62332.710000000006</v>
       </c>
     </row>
@@ -1495,27 +1498,27 @@
         <v>100000</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F28">
-        <f>C28*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G28">
-        <f>C28*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H28">
-        <f>C28*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -1530,27 +1533,27 @@
         <v>100000</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F29">
-        <f>C29*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G29">
-        <f>C29*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H29">
-        <f>C29*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -1565,27 +1568,27 @@
         <v>100000</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F30">
-        <f>C30*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G30">
-        <f>C30*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H30">
-        <f>C30*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -1600,27 +1603,27 @@
         <v>100000</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F31">
-        <f>C31*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G31">
-        <f>C31*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H31">
-        <f>C31*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -1635,27 +1638,27 @@
         <v>100000</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F32">
-        <f>C32*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G32">
-        <f>C32*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H32">
-        <f>C32*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -1670,27 +1673,27 @@
         <v>100000</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F33">
-        <f>C33*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G33">
-        <f>C33*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H33">
-        <f>C33*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -1705,27 +1708,27 @@
         <v>100000</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F34">
-        <f>C34*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G34">
-        <f>C34*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H34">
-        <f>C34*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -1740,27 +1743,27 @@
         <v>100000</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F35">
-        <f>C35*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G35">
-        <f>C35*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H35">
-        <f>C35*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -1775,27 +1778,27 @@
         <v>100000</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F36">
-        <f>C36*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G36">
-        <f>C36*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H36">
-        <f>C36*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -1810,27 +1813,27 @@
         <v>100000</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F37">
-        <f>C37*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G37">
-        <f>C37*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H37">
-        <f>C37*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -1845,27 +1848,27 @@
         <v>100000</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F38">
-        <f>C38*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G38">
-        <f>C38*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H38">
-        <f>C38*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -1880,27 +1883,27 @@
         <v>100000</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F39">
-        <f>C39*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G39">
-        <f>C39*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H39">
-        <f>C39*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -1915,27 +1918,27 @@
         <v>200000</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>210000</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>190000</v>
       </c>
       <c r="F40">
-        <f>C40*1.1</f>
+        <f t="shared" si="0"/>
         <v>220000.00000000003</v>
       </c>
       <c r="G40">
-        <f>C40*0.9</f>
+        <f t="shared" si="1"/>
         <v>180000</v>
       </c>
       <c r="H40">
-        <f>C40*1.15</f>
+        <f t="shared" si="2"/>
         <v>229999.99999999997</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>187000.00000000003</v>
       </c>
     </row>
@@ -1950,27 +1953,27 @@
         <v>200000</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>210000</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>190000</v>
       </c>
       <c r="F41">
-        <f>C41*1.1</f>
+        <f t="shared" si="0"/>
         <v>220000.00000000003</v>
       </c>
       <c r="G41">
-        <f>C41*0.9</f>
+        <f t="shared" si="1"/>
         <v>180000</v>
       </c>
       <c r="H41">
-        <f>C41*1.15</f>
+        <f t="shared" si="2"/>
         <v>229999.99999999997</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>187000.00000000003</v>
       </c>
     </row>
@@ -1985,27 +1988,27 @@
         <v>400000</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>420000</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>380000</v>
       </c>
       <c r="F42">
-        <f>C42*1.1</f>
+        <f t="shared" si="0"/>
         <v>440000.00000000006</v>
       </c>
       <c r="G42">
-        <f>C42*0.9</f>
+        <f t="shared" si="1"/>
         <v>360000</v>
       </c>
       <c r="H42">
-        <f>C42*1.15</f>
+        <f t="shared" si="2"/>
         <v>459999.99999999994</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>374000.00000000006</v>
       </c>
     </row>
@@ -2020,27 +2023,27 @@
         <v>33333</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>34999.65</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31666.35</v>
       </c>
       <c r="F43">
-        <f>C43*1.1</f>
+        <f t="shared" si="0"/>
         <v>36666.300000000003</v>
       </c>
       <c r="G43">
-        <f>C43*0.9</f>
+        <f t="shared" si="1"/>
         <v>29999.7</v>
       </c>
       <c r="H43">
-        <f>C43*1.15</f>
+        <f t="shared" si="2"/>
         <v>38332.949999999997</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>31166.355000000003</v>
       </c>
     </row>
@@ -2055,27 +2058,27 @@
         <v>100000</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95000</v>
       </c>
       <c r="F44">
-        <f>C44*1.1</f>
+        <f t="shared" si="0"/>
         <v>110000.00000000001</v>
       </c>
       <c r="G44">
-        <f>C44*0.9</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="H44">
-        <f>C44*1.15</f>
+        <f t="shared" si="2"/>
         <v>114999.99999999999</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93500.000000000015</v>
       </c>
     </row>
@@ -2090,28 +2093,63 @@
         <v>200000</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>210000</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>190000</v>
       </c>
       <c r="F45">
-        <f>C45*1.1</f>
+        <f t="shared" si="0"/>
         <v>220000.00000000003</v>
       </c>
       <c r="G45">
-        <f>C45*0.9</f>
+        <f t="shared" si="1"/>
         <v>180000</v>
       </c>
       <c r="H45">
-        <f>C45*1.15</f>
+        <f t="shared" si="2"/>
         <v>229999.99999999997</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>187000.00000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>225</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="4"/>
+        <v>1900</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="5"/>
+        <v>1870</v>
       </c>
     </row>
   </sheetData>
